--- a/libfiles/VE2s标准IO.xlsx
+++ b/libfiles/VE2s标准IO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="192" windowWidth="14808" windowHeight="7920" tabRatio="807" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机器信息" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="514">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,14 +1339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可编程IO_输出1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可编程IO_输出2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中子C进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1696,13 +1688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Program I/O Output 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program I/O Output 2</t>
-  </si>
-  <si>
     <t>锁模力传感器（选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2062,6 +2047,29 @@
   <si>
     <t>Safety Realy Feedback Bit 3(CE)/Safety Relay Feedback(GB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Door In End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexible output 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexible output 2</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2332,21 +2340,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4742,34 +4753,34 @@
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>498</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4787,384 +4798,384 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>451</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>455</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="26" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -5186,89 +5197,89 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="23" customWidth="1"/>
     <col min="4" max="4" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="24" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="23" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="D6" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="23" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="C6" s="23" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="22" t="s">
         <v>445</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5286,123 +5297,123 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="L1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>467</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>471</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="41"/>
       <c r="E8" s="34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -5411,97 +5422,97 @@
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>490</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>494</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -5526,22 +5537,22 @@
   <dimension ref="A1:E759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E164" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomRight" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -5552,10 +5563,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>63</v>
       </c>
@@ -5563,15 +5574,15 @@
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -5579,67 +5590,67 @@
       <c r="C4" s="15"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="50"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="45"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -5647,67 +5658,67 @@
       <c r="C11" s="15"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="45"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="45"/>
-      <c r="C15" s="50"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>504</v>
+        <v>499</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>500</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="45"/>
-      <c r="C17" s="50"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -5715,71 +5726,71 @@
       <c r="C18" s="15"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>240</v>
       </c>
       <c r="B22" s="45"/>
-      <c r="C22" s="50"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
@@ -5787,7 +5798,7 @@
       <c r="C26" s="15"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
@@ -5799,27 +5810,27 @@
       </c>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>421</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
@@ -5831,7 +5842,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>22</v>
       </c>
@@ -5843,27 +5854,27 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>426</v>
+        <v>417</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>422</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="45"/>
-      <c r="C33" s="44"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>27</v>
       </c>
@@ -5875,7 +5886,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -5883,19 +5894,19 @@
       <c r="C35" s="15"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>19</v>
       </c>
@@ -5907,19 +5918,19 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
@@ -5931,7 +5942,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>33</v>
       </c>
@@ -5939,7 +5950,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>19</v>
       </c>
@@ -5951,7 +5962,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>34</v>
       </c>
@@ -5959,7 +5970,7 @@
       <c r="C42" s="16"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>19</v>
       </c>
@@ -5971,7 +5982,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -5979,7 +5990,7 @@
       <c r="C44" s="15"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>22</v>
       </c>
@@ -5991,27 +6002,27 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="48" t="s">
-        <v>341</v>
+      <c r="C46" s="56" t="s">
+        <v>339</v>
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>19</v>
       </c>
@@ -6023,7 +6034,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>22</v>
       </c>
@@ -6035,27 +6046,27 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="48" t="s">
-        <v>341</v>
+      <c r="C50" s="56" t="s">
+        <v>339</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="44"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -6067,15 +6078,15 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+    <row r="53" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>68</v>
       </c>
@@ -6083,7 +6094,7 @@
       <c r="C54" s="15"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>37</v>
       </c>
@@ -6091,11 +6102,11 @@
         <v>245</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>38</v>
       </c>
@@ -6103,11 +6114,11 @@
         <v>246</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>39</v>
       </c>
@@ -6115,11 +6126,11 @@
         <v>247</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>40</v>
       </c>
@@ -6127,11 +6138,11 @@
         <v>248</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>41</v>
       </c>
@@ -6139,11 +6150,11 @@
         <v>249</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>42</v>
       </c>
@@ -6151,11 +6162,11 @@
         <v>250</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>43</v>
       </c>
@@ -6163,7 +6174,7 @@
         <v>251</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D61" s="4"/>
     </row>
@@ -6172,14 +6183,14 @@
         <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>341</v>
+        <v>508</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>511</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -6187,7 +6198,7 @@
       <c r="C63" s="15"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>46</v>
       </c>
@@ -6195,11 +6206,11 @@
         <v>253</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>47</v>
       </c>
@@ -6207,11 +6218,11 @@
         <v>254</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>48</v>
       </c>
@@ -6219,11 +6230,11 @@
         <v>255</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>49</v>
       </c>
@@ -6231,23 +6242,23 @@
         <v>256</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>51</v>
       </c>
@@ -6255,11 +6266,11 @@
         <v>257</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>52</v>
       </c>
@@ -6267,11 +6278,11 @@
         <v>259</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>53</v>
       </c>
@@ -6279,11 +6290,11 @@
         <v>258</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>62</v>
       </c>
@@ -6291,7 +6302,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>54</v>
       </c>
@@ -6299,11 +6310,11 @@
         <v>260</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>55</v>
       </c>
@@ -6311,11 +6322,11 @@
         <v>261</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>56</v>
       </c>
@@ -6323,11 +6334,11 @@
         <v>262</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>57</v>
       </c>
@@ -6335,11 +6346,11 @@
         <v>263</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>58</v>
       </c>
@@ -6347,11 +6358,11 @@
         <v>264</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>59</v>
       </c>
@@ -6359,11 +6370,11 @@
         <v>265</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>60</v>
       </c>
@@ -6371,11 +6382,11 @@
         <v>266</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>61</v>
       </c>
@@ -6383,11 +6394,11 @@
         <v>267</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -6395,7 +6406,7 @@
       <c r="C81" s="15"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>70</v>
       </c>
@@ -6403,11 +6414,11 @@
         <v>268</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>71</v>
       </c>
@@ -6415,11 +6426,11 @@
         <v>269</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>72</v>
       </c>
@@ -6427,11 +6438,11 @@
         <v>270</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>73</v>
       </c>
@@ -6439,11 +6450,11 @@
         <v>271</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>74</v>
       </c>
@@ -6451,11 +6462,11 @@
         <v>272</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>75</v>
       </c>
@@ -6463,11 +6474,11 @@
         <v>273</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>76</v>
       </c>
@@ -6475,11 +6486,11 @@
         <v>274</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>77</v>
       </c>
@@ -6487,11 +6498,11 @@
         <v>275</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
@@ -6499,7 +6510,7 @@
       <c r="C90" s="15"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>78</v>
       </c>
@@ -6507,11 +6518,11 @@
         <v>276</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>79</v>
       </c>
@@ -6519,11 +6530,11 @@
         <v>277</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>80</v>
       </c>
@@ -6531,11 +6542,11 @@
         <v>278</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>81</v>
       </c>
@@ -6543,23 +6554,23 @@
         <v>279</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>83</v>
       </c>
@@ -6567,11 +6578,11 @@
         <v>252</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>84</v>
       </c>
@@ -6579,11 +6590,11 @@
         <v>280</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>85</v>
       </c>
@@ -6591,11 +6602,11 @@
         <v>281</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
@@ -6603,7 +6614,7 @@
       <c r="C99" s="15"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>87</v>
       </c>
@@ -6611,11 +6622,11 @@
         <v>282</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>88</v>
       </c>
@@ -6623,11 +6634,11 @@
         <v>283</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>89</v>
       </c>
@@ -6635,11 +6646,11 @@
         <v>284</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>90</v>
       </c>
@@ -6647,11 +6658,11 @@
         <v>285</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>91</v>
       </c>
@@ -6659,11 +6670,11 @@
         <v>286</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>92</v>
       </c>
@@ -6671,11 +6682,11 @@
         <v>287</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>93</v>
       </c>
@@ -6683,11 +6694,11 @@
         <v>288</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>94</v>
       </c>
@@ -6695,11 +6706,11 @@
         <v>289</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>230</v>
       </c>
@@ -6707,7 +6718,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>96</v>
       </c>
@@ -6715,11 +6726,11 @@
         <v>290</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>97</v>
       </c>
@@ -6727,23 +6738,23 @@
         <v>291</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>99</v>
       </c>
@@ -6751,11 +6762,11 @@
         <v>292</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>100</v>
       </c>
@@ -6763,11 +6774,11 @@
         <v>293</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>101</v>
       </c>
@@ -6775,11 +6786,11 @@
         <v>294</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>102</v>
       </c>
@@ -6787,11 +6798,11 @@
         <v>295</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>103</v>
       </c>
@@ -6799,19 +6810,19 @@
         <v>296</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="42" t="s">
+    <row r="117" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="42"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="50"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+    </row>
+    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -6819,7 +6830,7 @@
       <c r="C118" s="15"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>106</v>
       </c>
@@ -6827,11 +6838,11 @@
         <v>297</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>107</v>
       </c>
@@ -6839,11 +6850,11 @@
         <v>298</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>108</v>
       </c>
@@ -6851,11 +6862,11 @@
         <v>299</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>109</v>
       </c>
@@ -6863,11 +6874,11 @@
         <v>300</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>110</v>
       </c>
@@ -6883,7 +6894,7 @@
         <v>301</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D124" s="4"/>
     </row>
@@ -6895,7 +6906,7 @@
         <v>302</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -6907,7 +6918,7 @@
         <v>303</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D126" s="4"/>
     </row>
@@ -6919,7 +6930,7 @@
         <v>304</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -6939,7 +6950,7 @@
         <v>305</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -6951,7 +6962,7 @@
         <v>306</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D130" s="4"/>
     </row>
@@ -6963,7 +6974,7 @@
         <v>307</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -6975,7 +6986,7 @@
         <v>308</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D132" s="4"/>
     </row>
@@ -6995,7 +7006,7 @@
         <v>309</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D134" s="4"/>
     </row>
@@ -7007,7 +7018,7 @@
         <v>310</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D135" s="4"/>
     </row>
@@ -7019,7 +7030,7 @@
         <v>311</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -7031,7 +7042,7 @@
         <v>312</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -7107,7 +7118,7 @@
         <v>313</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D144" s="4"/>
     </row>
@@ -7119,7 +7130,7 @@
         <v>314</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D145" s="4"/>
     </row>
@@ -7131,7 +7142,7 @@
         <v>315</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D146" s="4"/>
     </row>
@@ -7143,7 +7154,7 @@
         <v>316</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D147" s="4"/>
     </row>
@@ -7163,7 +7174,7 @@
         <v>317</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D149" s="4"/>
     </row>
@@ -7175,7 +7186,7 @@
         <v>318</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D150" s="4"/>
     </row>
@@ -7187,7 +7198,7 @@
         <v>253</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D151" s="4"/>
     </row>
@@ -7199,7 +7210,7 @@
         <v>319</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D152" s="4"/>
     </row>
@@ -7219,7 +7230,7 @@
         <v>320</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D154" s="4"/>
     </row>
@@ -7231,7 +7242,7 @@
         <v>322</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D155" s="4"/>
     </row>
@@ -7243,7 +7254,7 @@
         <v>321</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D156" s="4"/>
     </row>
@@ -7255,7 +7266,7 @@
         <v>323</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D157" s="4"/>
     </row>
@@ -7275,7 +7286,7 @@
         <v>324</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D159" s="4"/>
     </row>
@@ -7287,7 +7298,7 @@
         <v>325</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D160" s="4"/>
     </row>
@@ -7299,7 +7310,7 @@
         <v>326</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D161" s="4"/>
     </row>
@@ -7311,7 +7322,7 @@
         <v>327</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D162" s="4"/>
     </row>
@@ -7387,7 +7398,7 @@
         <v>328</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D169" s="4"/>
     </row>
@@ -7396,10 +7407,10 @@
         <v>173</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D170" s="4"/>
     </row>
@@ -7408,10 +7419,10 @@
         <v>174</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>419</v>
+        <v>509</v>
+      </c>
+      <c r="C171" s="57" t="s">
+        <v>512</v>
       </c>
       <c r="D171" s="4"/>
     </row>
@@ -7420,10 +7431,10 @@
         <v>175</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>420</v>
+        <v>510</v>
+      </c>
+      <c r="C172" s="57" t="s">
+        <v>513</v>
       </c>
       <c r="D172" s="4"/>
     </row>
@@ -7440,10 +7451,10 @@
         <v>177</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D174" s="4"/>
     </row>
@@ -7452,10 +7463,10 @@
         <v>178</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D175" s="4"/>
     </row>
@@ -7467,7 +7478,7 @@
         <v>252</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D176" s="4"/>
     </row>
@@ -7476,10 +7487,10 @@
         <v>180</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D177" s="4"/>
     </row>
@@ -7591,10 +7602,10 @@
         <v>190</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="8"/>
@@ -7723,9 +7734,9 @@
       <c r="A199" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B199" s="51"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="52"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="43"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
@@ -7739,9 +7750,9 @@
       <c r="A201" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="53"/>
+      <c r="B201" s="42"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="44"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
@@ -7749,28 +7760,28 @@
       <c r="C202" s="18"/>
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C209"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C210"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -11069,6 +11080,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A199:D199"/>
     <mergeCell ref="A201:D201"/>
     <mergeCell ref="B16:B17"/>
@@ -11085,22 +11112,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11118,14 +11129,14 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -11152,14 +11163,14 @@
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -11186,14 +11197,14 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -11220,14 +11231,14 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -11254,14 +11265,14 @@
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
